--- a/碰撞.xlsx
+++ b/碰撞.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E231E5-9838-44F1-9C50-0C31A96445D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC507CF-9426-40D3-A378-E7C12D3664C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>次数</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碰撞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,15 +141,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +574,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12 C14:C15 E14:E15 D14:D17 C19:E19 C21 E21 D21:D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,12 +589,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,12 +880,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -899,13 +895,11 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/碰撞.xlsx
+++ b/碰撞.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC507CF-9426-40D3-A378-E7C12D3664C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731131CC-D0D7-4292-94B6-F21E65E61B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>次数</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>碰撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -574,7 +562,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,10 +579,13 @@
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,26 +868,6 @@
         <v>8.8092362520338363E-2</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>

--- a/碰撞.xlsx
+++ b/碰撞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731131CC-D0D7-4292-94B6-F21E65E61B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E27801-2624-47D6-B384-BB816E28F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,76 +39,6 @@
     <t>次数</t>
   </si>
   <si>
-    <t>△t2(ms)</t>
-  </si>
-  <si>
-    <t>△t1(ms)</t>
-  </si>
-  <si>
-    <t>Δs2(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δs1‘(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δs1(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1（g）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2（g）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△t1’(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△v(m/s)保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△u(m/s)保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e保留六位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△u’(m/s)保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>△v’(m/s)保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1'保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2'保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E△保留五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>△t2’(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完全弹性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +64,82 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△u(m/s) 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△v(m/s) 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△u’(m/s) 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△v’(m/s) 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1' 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2' 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E△ 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△t1(ms) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△t2(ms) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△t1’(ms) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△t2’(ms) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1（g） 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2（g） 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Δs1(cm) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Δs2(cm) 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Δs1‘(cm) 2dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -259,9 +261,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -272,8 +271,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -562,7 +567,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,43 +582,43 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -650,11 +655,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>22</v>
+      <c r="A11" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>83.22</v>
@@ -667,27 +672,27 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
         <f>10*C8/C11</f>
         <v>0.60081711127132897</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>10*C8/D11</f>
         <v>0.52592826338487431</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>10*C8/E11</f>
         <v>0.46356387910254032</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>84.56</v>
@@ -700,71 +705,71 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f>10*D8/C13</f>
         <v>0.59129612109744556</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f>10*D8/D13</f>
         <v>0.51145662847790507</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f>10*D8/E13</f>
         <v>0.45524902121460442</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
         <f>C14/C12</f>
         <v>0.98415326395458846</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" ref="D15:E15" si="0">D14/D12</f>
         <v>0.97248363338788868</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0.98206318856414465</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="12">
         <f>ABS((B8*D8*D11/(A8*C8*D13)-1))</f>
         <v>2.7661860872044031E-2</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10">
         <f>ABS((B8*D8^2*D11^2/(A8*C8^2*D13^2)-1))</f>
         <v>5.441707357922676E-2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
+      <c r="A18" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
         <v>75.11</v>
@@ -775,31 +780,31 @@
       <c r="E18" s="5">
         <v>69.099999999999994</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
         <f>10*E8/C18</f>
         <v>0.66569032086273461</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>10*E8/D18</f>
         <v>0.74839095943721001</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>10*E8/E18</f>
         <v>0.72358900144717808</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -816,61 +821,61 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10">
         <f>10*E8/C20</f>
         <v>0.32410708498087765</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>10*E8/D20</f>
         <v>0.35734705546026302</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>10*E8/E20</f>
         <v>0.3536818278276862</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="11">
+      <c r="A22" s="14"/>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10">
         <f>ABS((1+B8/A8)*D18/D20-1)</f>
         <v>4.5097166321252491E-2</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="11">
+      <c r="A23" s="14"/>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="10">
         <f>ABS((1+B8/A8)*D18^2/D20^2-1)</f>
         <v>0.54404618126016913</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="11">
+      <c r="A24" s="14"/>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10">
         <f>ABS(2*(1+B8/A8)*D18^2/D20^2-1)</f>
         <v>8.8092362520338363E-2</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
